--- a/tims-ig/branch/master/all-profiles.xlsx
+++ b/tims-ig/branch/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T19:40:27+00:00</t>
+    <t>2023-04-11T21:30:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
